--- a/Data/Vanity_Check_bsnl_cost.xlsx
+++ b/Data/Vanity_Check_bsnl_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druva\OneDrive\Documents\Projects\VanityIndianNum\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE07C3-73E8-4E43-A263-133FD0FB5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805225E4-0081-486B-A66F-AD86CB8D7AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11352" yWindow="0" windowWidth="11784" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="325">
-  <si>
-    <t xml:space="preserve">
-ILLUSTRATIVE PATTERNS FOR CATEGORIZATION OF VANITY NUMBERS BY CIRCLE COMMITTEE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="323">
   <si>
     <t>Old Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Proposed new rate </t>
-  </si>
-  <si>
-    <t>Sl No</t>
   </si>
   <si>
     <t>No: of vanity Digit</t>
@@ -3028,16 +3021,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3049,14 +3034,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3250,106 +3227,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3655,3492 +3617,3089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>6</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>320</v>
+      </c>
       <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>175000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="8">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2">
+        <v>350000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2">
-        <v>175000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2">
-        <v>400000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8">
-        <v>500000</v>
-      </c>
-      <c r="I5" s="8">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2">
-        <v>150000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>450000</v>
+      </c>
       <c r="H7" s="2">
-        <v>350000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2">
-        <v>450000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40000</v>
+      </c>
       <c r="H9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8">
+        <v>60000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4">
+        <v>80000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>80000</v>
+      </c>
+      <c r="H12" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <v>80000</v>
+      </c>
+      <c r="H13" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8">
+        <v>50000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8">
         <v>40000</v>
       </c>
-      <c r="I10" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="H15" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8">
+        <v>15000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8">
-        <v>60000</v>
-      </c>
-      <c r="I11" s="8">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4">
-        <v>80000</v>
-      </c>
-      <c r="I12" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="4">
-        <v>80000</v>
-      </c>
-      <c r="I13" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="4">
-        <v>80000</v>
-      </c>
-      <c r="I14" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="8">
-        <v>50000</v>
-      </c>
-      <c r="I15" s="8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="8">
-        <v>40000</v>
-      </c>
-      <c r="I16" s="8">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>47</v>
+      <c r="G17" s="8">
+        <v>15000</v>
       </c>
       <c r="H17" s="8">
         <v>15000</v>
       </c>
-      <c r="I17" s="8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11">
         <v>9</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="8">
-        <v>15000</v>
-      </c>
-      <c r="I18" s="8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8">
         <v>10000</v>
       </c>
-      <c r="I19" s="8">
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="H20" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>9</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="5">
         <v>10000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="H24" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="3">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="2">
         <v>15000</v>
       </c>
-      <c r="I22" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="H25" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>8</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="D28" s="11"/>
+      <c r="E28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>8</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11">
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="8">
+        <v>15000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>8</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I25" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="8">
         <v>15000</v>
-      </c>
-      <c r="I26" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11">
-        <v>8</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11">
-        <v>8</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="2">
-        <v>15000</v>
-      </c>
-      <c r="I28" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11">
-        <v>8</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="30">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11">
-        <v>8</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="H30" s="8">
         <v>15000</v>
       </c>
-      <c r="I30" s="8">
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="5">
         <v>15000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="H32" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>8</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>10</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
         <v>15000</v>
       </c>
-      <c r="I31" s="8">
+    </row>
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>10</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>10</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="9">
         <v>15000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>10</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H44" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="4">
+        <v>80000</v>
+      </c>
+      <c r="H45" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>5</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H46" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H47" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>6</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H48" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H49" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H50" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H53" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H54" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H55" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>6</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H56" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>6</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H57" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>6</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>8</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="B59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="2">
         <v>10000</v>
       </c>
-      <c r="I32" s="5">
+      <c r="H59" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>7</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11">
-        <v>8</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="5">
-        <v>15000</v>
-      </c>
-      <c r="I33" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11">
-        <v>8</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="5">
-        <v>7000</v>
-      </c>
-      <c r="I34" s="5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11">
-        <v>8</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="5">
-        <v>7000</v>
-      </c>
-      <c r="I35" s="5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11">
-        <v>8</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11">
-        <v>10</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11">
-        <v>10</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="11">
-        <v>10</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11">
-        <v>10</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="11">
-        <v>10</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11">
-        <v>10</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="9">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="11">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="H60" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>7</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="11">
-        <v>5</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="4">
-        <v>100000</v>
-      </c>
-      <c r="I45" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="11">
-        <v>5</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="4">
-        <v>80000</v>
-      </c>
-      <c r="I46" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11">
-        <v>5</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="5">
-        <v>15000</v>
-      </c>
-      <c r="I47" s="5">
+      <c r="C61" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="2">
         <v>20000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="11">
-        <v>6</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="4">
-        <v>60000</v>
-      </c>
-      <c r="I48" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="11">
-        <v>6</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="4">
-        <v>60000</v>
-      </c>
-      <c r="I49" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
-        <v>48</v>
-      </c>
-      <c r="B50" s="11">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="4">
-        <v>60000</v>
-      </c>
-      <c r="I50" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="11">
-        <v>6</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="4">
-        <v>60000</v>
-      </c>
-      <c r="I51" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="11">
-        <v>6</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="11">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="11">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I54" s="5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <v>53</v>
-      </c>
-      <c r="B55" s="11">
-        <v>6</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="2">
-        <v>15000</v>
-      </c>
-      <c r="I55" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="11">
-        <v>6</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H56" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I56" s="5">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
-        <v>55</v>
-      </c>
-      <c r="B57" s="11">
-        <v>6</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="I57" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
-        <v>56</v>
-      </c>
-      <c r="B58" s="11">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H58" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I58" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
-        <v>57</v>
-      </c>
-      <c r="B59" s="11">
-        <v>6</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I59" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
-        <v>58</v>
-      </c>
-      <c r="B60" s="11">
-        <v>8</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I60" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
-        <v>59</v>
-      </c>
-      <c r="B61" s="11">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="H61" s="2">
         <v>20000</v>
       </c>
-      <c r="I61" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
-        <v>60</v>
-      </c>
-      <c r="B62" s="11">
         <v>7</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="B62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="23" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="2">
-        <v>20000</v>
-      </c>
-      <c r="I62" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H62" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
-        <v>61</v>
-      </c>
-      <c r="B63" s="11">
         <v>7</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="12" t="s">
+      <c r="B63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="23" t="s">
+      <c r="D63" s="11"/>
+      <c r="E63" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" s="5">
+      <c r="F63" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H63" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>4</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="4">
+        <v>7000</v>
+      </c>
+      <c r="H64" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>4</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="4">
+        <v>6000</v>
+      </c>
+      <c r="H65" s="4">
         <v>4000</v>
       </c>
-      <c r="I63" s="5">
+    </row>
+    <row r="66" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>4</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H66" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
-        <v>62</v>
-      </c>
-      <c r="B64" s="11">
-        <v>7</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="12" t="s">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>5</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="C67" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H67" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H68" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>5</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H69" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H70" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>5</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="14">
+        <v>4000</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>5</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H72" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>6</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>6</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H74" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>6</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H75" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>6</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="8">
+        <v>7000</v>
+      </c>
+      <c r="H76" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>6</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>6</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="8">
+        <v>7000</v>
+      </c>
+      <c r="H78" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>6</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H79" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>6</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H80" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>6</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H81" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>6</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H82" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>8</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="2">
         <v>15000</v>
       </c>
-      <c r="I64" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
-        <v>63</v>
-      </c>
-      <c r="B65" s="11">
-        <v>4</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H65" s="4">
-        <v>7000</v>
-      </c>
-      <c r="I65" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
-        <v>64</v>
-      </c>
-      <c r="B66" s="11">
-        <v>4</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H66" s="4">
-        <v>6000</v>
-      </c>
-      <c r="I66" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
-        <v>65</v>
-      </c>
-      <c r="B67" s="11">
-        <v>4</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="5">
-        <v>4000</v>
-      </c>
-      <c r="I67" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
-        <v>66</v>
-      </c>
-      <c r="B68" s="11">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H68" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I68" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
-        <v>67</v>
-      </c>
-      <c r="B69" s="11">
-        <v>5</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I69" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
-        <v>68</v>
-      </c>
-      <c r="B70" s="11">
-        <v>5</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I70" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
-        <v>69</v>
-      </c>
-      <c r="B71" s="11">
-        <v>5</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H71" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I71" s="14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
-        <v>70</v>
-      </c>
-      <c r="B72" s="11">
-        <v>5</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" s="15">
-        <v>4000</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
-        <v>71</v>
-      </c>
-      <c r="B73" s="11">
-        <v>5</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H73" s="16">
-        <v>2000</v>
-      </c>
-      <c r="I73" s="17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
-        <v>72</v>
-      </c>
-      <c r="B74" s="11">
-        <v>6</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I74" s="6">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
-        <v>73</v>
-      </c>
-      <c r="B75" s="11">
-        <v>6</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H75" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I75" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
-        <v>74</v>
-      </c>
-      <c r="B76" s="11">
-        <v>6</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H76" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I76" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
-        <v>75</v>
-      </c>
-      <c r="B77" s="11">
-        <v>6</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" s="8">
-        <v>7000</v>
-      </c>
-      <c r="I77" s="8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
-        <v>76</v>
-      </c>
-      <c r="B78" s="11">
-        <v>6</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I78" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
-        <v>77</v>
-      </c>
-      <c r="B79" s="11">
-        <v>6</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="8">
-        <v>7000</v>
-      </c>
-      <c r="I79" s="8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
-        <v>78</v>
-      </c>
-      <c r="B80" s="11">
-        <v>6</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="5">
-        <v>4000</v>
-      </c>
-      <c r="I80" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
-        <v>79</v>
-      </c>
-      <c r="B81" s="11">
-        <v>6</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="5">
-        <v>3000</v>
-      </c>
-      <c r="I81" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
-        <v>80</v>
-      </c>
-      <c r="B82" s="11">
-        <v>6</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="5">
-        <v>4000</v>
-      </c>
-      <c r="I82" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
-        <v>81</v>
-      </c>
-      <c r="B83" s="11">
-        <v>6</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H83" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I83" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
-        <v>82</v>
-      </c>
-      <c r="B84" s="11">
         <v>8</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="12" t="s">
+      <c r="B84" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>206</v>
+      <c r="G84" s="2">
+        <v>15000</v>
       </c>
       <c r="H84" s="2">
         <v>15000</v>
       </c>
-      <c r="I84" s="2">
+    </row>
+    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>6</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H85" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>8</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" s="2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
-        <v>83</v>
-      </c>
-      <c r="B85" s="11">
-        <v>8</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H85" s="2">
+      <c r="H86" s="2">
         <v>15000</v>
       </c>
-      <c r="I85" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
-        <v>84</v>
-      </c>
-      <c r="B86" s="11">
-        <v>6</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I86" s="5">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
-        <v>85</v>
-      </c>
-      <c r="B87" s="11">
-        <v>8</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="23" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="F87" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G87" s="2"/>
       <c r="H87" s="2">
         <v>15000</v>
       </c>
-      <c r="I87" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
-        <v>86</v>
-      </c>
-      <c r="B88" s="11">
         <v>7</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="12" t="s">
+      <c r="B88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H88" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
-        <v>87</v>
-      </c>
-      <c r="B89" s="11">
         <v>7</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" s="12" t="s">
+      <c r="B89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="23" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="G89" s="13" t="s">
-        <v>215</v>
+      <c r="F89" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" s="4">
+        <v>10000</v>
       </c>
       <c r="H89" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>7</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>6</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91" s="4">
         <v>10000</v>
       </c>
-      <c r="I89" s="4">
+      <c r="H91" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
-        <v>88</v>
-      </c>
-      <c r="B90" s="11">
-        <v>7</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H90" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I90" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
-        <v>89</v>
-      </c>
-      <c r="B91" s="11">
-        <v>7</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
-        <v>90</v>
-      </c>
-      <c r="B92" s="11">
-        <v>6</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="23" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G92" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H92" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I92" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H92" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
-        <v>91</v>
-      </c>
-      <c r="B93" s="11">
-        <v>10</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="8" t="s">
         <v>226</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="2">
+        <v>4000</v>
       </c>
       <c r="H93" s="2">
         <v>4000</v>
       </c>
-      <c r="I93" s="2">
+    </row>
+    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
+        <v>8</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G94" s="5">
         <v>4000</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
-        <v>92</v>
-      </c>
-      <c r="B94" s="11">
-        <v>8</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="H94" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>10</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G95" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H95" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>10</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G96" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H96" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A97" s="10">
+        <v>10</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G97" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H97" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A98" s="10">
+        <v>10</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="10">
+        <v>3</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H99" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>3</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="4">
         <v>4000</v>
       </c>
-      <c r="I94" s="2">
+      <c r="H100" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
+        <v>3</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G101" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H101" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>4</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G102" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>4</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H103" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>4</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>4</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H105" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>4</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>5</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>5</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G108" s="4">
+        <v>7000</v>
+      </c>
+      <c r="H108" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10">
+        <v>5</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>5</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
-        <v>93</v>
-      </c>
-      <c r="B95" s="11">
-        <v>8</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="H95" s="5">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="10">
+        <v>5</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10">
+        <v>5</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G113" s="4">
         <v>4000</v>
       </c>
-      <c r="I95" s="18">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10">
-        <v>94</v>
-      </c>
-      <c r="B96" s="11">
-        <v>10</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H96" s="4">
-        <v>15000</v>
-      </c>
-      <c r="I96" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
-        <v>95</v>
-      </c>
-      <c r="B97" s="11">
-        <v>10</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H97" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I97" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
-        <v>96</v>
-      </c>
-      <c r="B98" s="11">
-        <v>10</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="H98" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I98" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
-        <v>97</v>
-      </c>
-      <c r="B99" s="11">
-        <v>10</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I99" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10">
-        <v>98</v>
-      </c>
-      <c r="B100" s="11">
-        <v>3</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="H100" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I100" s="19">
+      <c r="H113" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G114" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H114" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10">
-        <v>99</v>
-      </c>
-      <c r="B101" s="11">
-        <v>3</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H101" s="4">
+    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G115" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G116" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H116" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G117" s="4">
         <v>4000</v>
-      </c>
-      <c r="I101" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
-        <v>100</v>
-      </c>
-      <c r="B102" s="11">
-        <v>3</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H102" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I102" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
-        <v>101</v>
-      </c>
-      <c r="B103" s="11">
-        <v>4</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H103" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I103" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
-        <v>102</v>
-      </c>
-      <c r="B104" s="11">
-        <v>4</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H104" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I104" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
-        <v>103</v>
-      </c>
-      <c r="B105" s="11">
-        <v>4</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H105" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I105" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
-        <v>104</v>
-      </c>
-      <c r="B106" s="11">
-        <v>4</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H106" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I106" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10">
-        <v>105</v>
-      </c>
-      <c r="B107" s="11">
-        <v>4</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H107" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I107" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
-        <v>106</v>
-      </c>
-      <c r="B108" s="11">
-        <v>5</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10">
-        <v>107</v>
-      </c>
-      <c r="B109" s="11">
-        <v>5</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H109" s="4">
-        <v>7000</v>
-      </c>
-      <c r="I109" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
-        <v>108</v>
-      </c>
-      <c r="B110" s="11">
-        <v>5</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10">
-        <v>109</v>
-      </c>
-      <c r="B111" s="11">
-        <v>5</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
-        <v>110</v>
-      </c>
-      <c r="B112" s="11">
-        <v>5</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
-        <v>111</v>
-      </c>
-      <c r="B113" s="11">
-        <v>5</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
-        <v>112</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H114" s="4">
-        <v>4000</v>
-      </c>
-      <c r="I114" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10">
-        <v>113</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H115" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I115" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
-        <v>114</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H116" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I116" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10">
-        <v>115</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="H117" s="4">
         <v>3000</v>
       </c>
-      <c r="I117" s="14">
+    </row>
+    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G118" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H118" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10">
+        <v>3</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G119" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H119" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10">
+        <v>3</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G120" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H120" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10">
+        <v>3</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G121" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H121" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="10">
+        <v>3</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H122" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10">
+        <v>4</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H123" s="13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10">
+        <v>4</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G124" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H124" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="10">
+        <v>4</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G125" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H125" s="18">
         <v>2000</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
-        <v>116</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H118" s="4">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="10">
+        <v>4</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G126" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H126" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="24">
+        <v>4</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G127" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H127" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10">
+        <v>4</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H128" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="10">
+        <v>4</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" s="4">
         <v>4000</v>
       </c>
-      <c r="I118" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10">
-        <v>117</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H119" s="4">
-        <v>4000</v>
-      </c>
-      <c r="I119" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="10">
-        <v>118</v>
-      </c>
-      <c r="B120" s="11">
-        <v>3</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H120" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I120" s="19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
-        <v>119</v>
-      </c>
-      <c r="B121" s="11">
-        <v>3</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H121" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I121" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10">
-        <v>120</v>
-      </c>
-      <c r="B122" s="11">
-        <v>3</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H122" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I122" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10">
-        <v>121</v>
-      </c>
-      <c r="B123" s="11">
-        <v>3</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H123" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I123" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10">
-        <v>122</v>
-      </c>
-      <c r="B124" s="11">
-        <v>4</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H124" s="4">
-        <v>4000</v>
-      </c>
-      <c r="I124" s="14">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10">
-        <v>123</v>
-      </c>
-      <c r="B125" s="11">
-        <v>4</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H125" s="4">
-        <v>4000</v>
-      </c>
-      <c r="I125" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
-        <v>124</v>
-      </c>
-      <c r="B126" s="11">
-        <v>4</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H126" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I126" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10">
-        <v>125</v>
-      </c>
-      <c r="B127" s="11">
-        <v>4</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H127" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I127" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="10">
-        <v>126</v>
-      </c>
-      <c r="B128" s="26">
-        <v>4</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G128" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H128" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I128" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
-        <v>127</v>
-      </c>
-      <c r="B129" s="11">
-        <v>4</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>318</v>
-      </c>
       <c r="H129" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I129" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
-        <v>128</v>
-      </c>
-      <c r="B130" s="11">
-        <v>4</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="H130" s="4">
-        <v>4000</v>
-      </c>
-      <c r="I130" s="4">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.17" bottom="0.17" header="0.17" footer="0.17"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Data/Vanity_Check_bsnl_cost.xlsx
+++ b/Data/Vanity_Check_bsnl_cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druva\OneDrive\Documents\Projects\VanityIndianNum\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D4664-BD6F-4604-AE7B-B9044A1E3D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45358C-3BF3-4264-91B3-4AA1D4F6E23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="331">
   <si>
     <t>Old Rate</t>
   </si>
@@ -562,12 +562,6 @@
     <t>Function Name</t>
   </si>
   <si>
-    <t>last_n_digits_identical(is_odd=False)</t>
-  </si>
-  <si>
-    <t>last_n_digits_identical(is_odd=True)</t>
-  </si>
-  <si>
     <t>Odd/Even Selection</t>
   </si>
   <si>
@@ -2832,9 +2826,6 @@
     <t>AAAAAAA???</t>
   </si>
   <si>
-    <t>last_n_digits_ascending()</t>
-  </si>
-  <si>
     <t>holy_number_ending(746)</t>
   </si>
   <si>
@@ -2850,13 +2841,19 @@
     <t>holy_number_anyplace(746)</t>
   </si>
   <si>
-    <t>middle_n_digits_identical(start_index=2)</t>
-  </si>
-  <si>
-    <t>middle_n_digits_identical(start_index=1)</t>
-  </si>
-  <si>
-    <t>middle_n_digits_identical(start_index=0)</t>
+    <t>last_n_digits_identical</t>
+  </si>
+  <si>
+    <t>Start Index</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>middle_n_digits_identical</t>
+  </si>
+  <si>
+    <t>last_n_digits_ascending</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3004,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3312,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,18 +3321,18 @@
     <col min="2" max="2" width="13.109375" style="14" customWidth="1"/>
     <col min="3" max="3" width="8" style="14" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="14" customWidth="1"/>
-    <col min="5" max="6" width="20.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="14" customWidth="1"/>
-    <col min="9" max="9" width="33.88671875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="14"/>
+    <col min="5" max="7" width="20.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="14" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3347,28 +3344,31 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>6</v>
       </c>
@@ -3376,31 +3376,34 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="7">
-        <v>175000</v>
       </c>
       <c r="K2" s="7">
         <v>175000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="7">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>7</v>
       </c>
@@ -3408,31 +3411,34 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="7">
-        <v>400000</v>
       </c>
       <c r="K3" s="7">
         <v>400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="7">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>8</v>
       </c>
@@ -3440,31 +3446,34 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="6">
-        <v>500000</v>
       </c>
       <c r="K4" s="6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>6</v>
       </c>
@@ -3472,31 +3481,34 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="J5" s="7">
-        <v>150000</v>
       </c>
       <c r="K5" s="7">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>7</v>
       </c>
@@ -3504,31 +3516,34 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="J6" s="7">
-        <v>350000</v>
       </c>
       <c r="K6" s="7">
         <v>350000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>8</v>
       </c>
@@ -3536,31 +3551,34 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="7">
-        <v>450000</v>
       </c>
       <c r="K7" s="7">
         <v>450000</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="7">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -3568,31 +3586,34 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <v>20000</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -3600,31 +3621,34 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <v>40000</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -3632,31 +3656,34 @@
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J10" s="6">
-        <v>60000</v>
       </c>
       <c r="K10" s="6">
         <v>60000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -3664,31 +3691,34 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>80000</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -3696,31 +3726,34 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>80000</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -3728,31 +3761,34 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>80000</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -3763,26 +3799,29 @@
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J14" s="6">
-        <v>50000</v>
       </c>
       <c r="K14" s="6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>9</v>
       </c>
@@ -3793,26 +3832,29 @@
         <v>21</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J15" s="6">
-        <v>40000</v>
       </c>
       <c r="K15" s="6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>9</v>
       </c>
@@ -3823,26 +3865,29 @@
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J16" s="6">
-        <v>15000</v>
       </c>
       <c r="K16" s="6">
         <v>15000</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>9</v>
       </c>
@@ -3853,26 +3898,29 @@
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" s="6">
-        <v>15000</v>
       </c>
       <c r="K17" s="6">
         <v>15000</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -3883,26 +3931,29 @@
         <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J18" s="6">
-        <v>10000</v>
       </c>
       <c r="K18" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>9</v>
       </c>
@@ -3913,24 +3964,27 @@
         <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>9</v>
       </c>
@@ -3941,26 +3995,29 @@
         <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <v>10000</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>9</v>
       </c>
@@ -3971,26 +4028,29 @@
         <v>27</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I21" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="9">
         <v>15000</v>
       </c>
-      <c r="K21" s="9">
+      <c r="L21" s="9">
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>9</v>
       </c>
@@ -4001,24 +4061,27 @@
         <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>60000</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>8</v>
       </c>
@@ -4029,24 +4092,27 @@
         <v>29</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I23" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>8</v>
       </c>
@@ -4057,26 +4123,29 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>10000</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>8</v>
       </c>
@@ -4087,26 +4156,29 @@
         <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="J25" s="7">
-        <v>15000</v>
       </c>
       <c r="K25" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>8</v>
       </c>
@@ -4117,24 +4189,27 @@
         <v>33</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>8</v>
       </c>
@@ -4145,26 +4220,29 @@
         <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I27" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>15000</v>
       </c>
-      <c r="K27" s="7">
+      <c r="L27" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>8</v>
       </c>
@@ -4175,24 +4253,27 @@
         <v>29</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I28" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>8</v>
       </c>
@@ -4203,26 +4284,29 @@
         <v>36</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J29" s="6">
-        <v>15000</v>
       </c>
       <c r="K29" s="6">
         <v>15000</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>8</v>
       </c>
@@ -4233,26 +4317,29 @@
         <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J30" s="6">
-        <v>15000</v>
       </c>
       <c r="K30" s="6">
         <v>15000</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>8</v>
       </c>
@@ -4263,26 +4350,29 @@
         <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I31" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="11">
+      <c r="K31" s="11">
         <v>10000</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>8</v>
       </c>
@@ -4293,26 +4383,29 @@
         <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="11">
+      <c r="K32" s="11">
         <v>15000</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <v>25000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>8</v>
       </c>
@@ -4323,26 +4416,29 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I33" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="11">
+      <c r="K33" s="11">
         <v>7000</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <v>25000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>8</v>
       </c>
@@ -4353,26 +4449,29 @@
         <v>42</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="11">
+      <c r="K34" s="11">
         <v>7000</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
         <v>25000</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>8</v>
       </c>
@@ -4383,24 +4482,27 @@
         <v>43</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
         <v>10</v>
       </c>
@@ -4411,24 +4513,27 @@
         <v>44</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>15000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>10</v>
       </c>
@@ -4439,24 +4544,27 @@
         <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>150000</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <v>10</v>
       </c>
@@ -4467,24 +4575,27 @@
         <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>10</v>
       </c>
@@ -4495,24 +4606,27 @@
         <v>51</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6">
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>25000</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>10</v>
       </c>
@@ -4523,24 +4637,27 @@
         <v>53</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>10</v>
       </c>
@@ -4551,24 +4668,27 @@
         <v>55</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="6">
+      <c r="K41" s="7"/>
+      <c r="L41" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
         <v>10</v>
       </c>
@@ -4579,24 +4699,27 @@
         <v>57</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
         <v>10</v>
       </c>
@@ -4607,24 +4730,27 @@
         <v>59</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
         <v>25000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6">
         <v>5</v>
       </c>
@@ -4632,31 +4758,34 @@
         <v>61</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <v>100000</v>
       </c>
-      <c r="K44" s="10">
+      <c r="L44" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6">
         <v>5</v>
       </c>
@@ -4664,31 +4793,34 @@
         <v>61</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J45" s="10">
+      <c r="K45" s="10">
         <v>80000</v>
       </c>
-      <c r="K45" s="10">
+      <c r="L45" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
         <v>5</v>
       </c>
@@ -4696,29 +4828,32 @@
         <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="11">
+      <c r="K46" s="11">
         <v>15000</v>
       </c>
-      <c r="K46" s="11">
+      <c r="L46" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6">
         <v>6</v>
       </c>
@@ -4729,26 +4864,29 @@
         <v>63</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I47" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <v>60000</v>
       </c>
-      <c r="K47" s="10">
+      <c r="L47" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
         <v>6</v>
       </c>
@@ -4759,26 +4897,29 @@
         <v>65</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <v>60000</v>
       </c>
-      <c r="K48" s="10">
+      <c r="L48" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
         <v>6</v>
       </c>
@@ -4789,26 +4930,29 @@
         <v>66</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I49" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <v>60000</v>
       </c>
-      <c r="K49" s="10">
+      <c r="L49" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6">
         <v>6</v>
       </c>
@@ -4819,26 +4963,29 @@
         <v>67</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <v>60000</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6">
         <v>6</v>
       </c>
@@ -4849,24 +4996,27 @@
         <v>68</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6">
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>6</v>
       </c>
@@ -4877,24 +5027,27 @@
         <v>70</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6">
         <v>6</v>
       </c>
@@ -4902,29 +5055,32 @@
         <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I53" s="5" t="s">
+      <c r="G53" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="11">
+      <c r="K53" s="11">
         <v>5000</v>
       </c>
-      <c r="K53" s="11">
+      <c r="L53" s="11">
         <v>8000</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6">
         <v>6</v>
       </c>
@@ -4935,26 +5091,29 @@
         <v>72</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I54" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J54" s="7">
-        <v>15000</v>
       </c>
       <c r="K54" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6">
         <v>6</v>
       </c>
@@ -4965,26 +5124,29 @@
         <v>74</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I55" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="11">
+      <c r="K55" s="11">
         <v>10000</v>
       </c>
-      <c r="K55" s="11">
+      <c r="L55" s="11">
         <v>12000</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6">
         <v>6</v>
       </c>
@@ -4995,26 +5157,29 @@
         <v>75</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I56" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J56" s="7">
-        <v>7000</v>
       </c>
       <c r="K56" s="7">
         <v>7000</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6">
         <v>6</v>
       </c>
@@ -5025,26 +5190,29 @@
         <v>76</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I57" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="11">
+      <c r="K57" s="11">
         <v>5000</v>
       </c>
-      <c r="K57" s="11">
+      <c r="L57" s="11">
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="6">
         <v>6</v>
       </c>
@@ -5055,26 +5223,29 @@
         <v>77</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I58" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="11">
+      <c r="K58" s="11">
         <v>5000</v>
       </c>
-      <c r="K58" s="11">
+      <c r="L58" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="6">
         <v>8</v>
       </c>
@@ -5085,26 +5256,29 @@
         <v>78</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="J59" s="7">
-        <v>10000</v>
       </c>
       <c r="K59" s="7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6">
         <v>7</v>
       </c>
@@ -5115,26 +5289,29 @@
         <v>80</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="I60" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J60" s="7">
-        <v>20000</v>
       </c>
       <c r="K60" s="7">
         <v>20000</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6">
         <v>7</v>
       </c>
@@ -5145,26 +5322,29 @@
         <v>82</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I61" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J61" s="7">
-        <v>20000</v>
       </c>
       <c r="K61" s="7">
         <v>20000</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6">
         <v>7</v>
       </c>
@@ -5175,26 +5355,29 @@
         <v>83</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J62" s="11">
+      <c r="K62" s="11">
         <v>4000</v>
       </c>
-      <c r="K62" s="11">
+      <c r="L62" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6">
         <v>7</v>
       </c>
@@ -5205,26 +5388,29 @@
         <v>84</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I63" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J63" s="10">
+      <c r="K63" s="10">
         <v>15000</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6">
         <v>4</v>
       </c>
@@ -5232,31 +5418,34 @@
         <v>85</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I64" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J64" s="10">
+      <c r="K64" s="10">
         <v>7000</v>
       </c>
-      <c r="K64" s="10">
+      <c r="L64" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="6">
         <v>4</v>
       </c>
@@ -5264,31 +5453,34 @@
         <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I65" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J65" s="10">
+      <c r="K65" s="10">
         <v>6000</v>
       </c>
-      <c r="K65" s="10">
+      <c r="L65" s="10">
         <v>4000</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="6">
         <v>4</v>
       </c>
@@ -5299,26 +5491,29 @@
         <v>88</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J66" s="11">
+      <c r="K66" s="11">
         <v>4000</v>
       </c>
-      <c r="K66" s="11">
+      <c r="L66" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="6">
         <v>5</v>
       </c>
@@ -5329,26 +5524,29 @@
         <v>90</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I67" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="J67" s="7">
-        <v>4000</v>
       </c>
       <c r="K67" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6">
         <v>5</v>
       </c>
@@ -5359,26 +5557,29 @@
         <v>92</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="10">
+      <c r="K68" s="10">
         <v>25000</v>
       </c>
-      <c r="K68" s="10">
+      <c r="L68" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="6">
         <v>5</v>
       </c>
@@ -5389,26 +5590,29 @@
         <v>94</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="10">
+      <c r="K69" s="10">
         <v>25000</v>
       </c>
-      <c r="K69" s="10">
+      <c r="L69" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6">
         <v>5</v>
       </c>
@@ -5419,26 +5623,29 @@
         <v>95</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="10">
+      <c r="K70" s="10">
         <v>25000</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6">
         <v>5</v>
       </c>
@@ -5449,26 +5656,29 @@
         <v>96</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I71" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J71" s="10">
+      <c r="K71" s="10">
         <v>4000</v>
       </c>
-      <c r="K71" s="10">
+      <c r="L71" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="6">
         <v>5</v>
       </c>
@@ -5479,26 +5689,29 @@
         <v>98</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I72" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="J72" s="6">
-        <v>2000</v>
       </c>
       <c r="K72" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6">
         <v>6</v>
       </c>
@@ -5509,26 +5722,29 @@
         <v>99</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J73" s="11">
+      <c r="K73" s="11">
         <v>5000</v>
       </c>
-      <c r="K73" s="11">
+      <c r="L73" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="6">
         <v>6</v>
       </c>
@@ -5539,26 +5755,29 @@
         <v>100</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I74" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J74" s="11">
+      <c r="K74" s="11">
         <v>5000</v>
       </c>
-      <c r="K74" s="11">
+      <c r="L74" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="6">
         <v>6</v>
       </c>
@@ -5569,26 +5788,29 @@
         <v>101</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I75" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J75" s="11">
+      <c r="K75" s="11">
         <v>5000</v>
       </c>
-      <c r="K75" s="11">
+      <c r="L75" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="6">
         <v>6</v>
       </c>
@@ -5599,26 +5821,29 @@
         <v>102</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I76" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J76" s="6">
-        <v>7000</v>
       </c>
       <c r="K76" s="6">
         <v>7000</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="6">
         <v>6</v>
       </c>
@@ -5629,26 +5854,29 @@
         <v>103</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="I77" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J77" s="10">
+      <c r="K77" s="10">
         <v>5000</v>
       </c>
-      <c r="K77" s="10">
+      <c r="L77" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6">
         <v>6</v>
       </c>
@@ -5659,26 +5887,29 @@
         <v>104</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I78" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J78" s="6">
-        <v>7000</v>
       </c>
       <c r="K78" s="6">
         <v>7000</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6">
         <v>6</v>
       </c>
@@ -5689,26 +5920,29 @@
         <v>105</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I79" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J79" s="11">
+      <c r="K79" s="11">
         <v>4000</v>
       </c>
-      <c r="K79" s="11">
+      <c r="L79" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6">
         <v>6</v>
       </c>
@@ -5719,26 +5953,29 @@
         <v>106</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I80" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J80" s="11">
+      <c r="K80" s="11">
         <v>3000</v>
       </c>
-      <c r="K80" s="11">
+      <c r="L80" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6">
         <v>6</v>
       </c>
@@ -5749,26 +5986,29 @@
         <v>107</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I81" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J81" s="11">
+      <c r="K81" s="11">
         <v>4000</v>
       </c>
-      <c r="K81" s="11">
+      <c r="L81" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6">
         <v>6</v>
       </c>
@@ -5779,26 +6019,29 @@
         <v>108</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I82" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J82" s="11">
+      <c r="K82" s="11">
         <v>5000</v>
       </c>
-      <c r="K82" s="11">
+      <c r="L82" s="11">
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="6">
         <v>8</v>
       </c>
@@ -5809,26 +6052,29 @@
         <v>109</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I83" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J83" s="7">
-        <v>15000</v>
       </c>
       <c r="K83" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6">
         <v>8</v>
       </c>
@@ -5839,26 +6085,29 @@
         <v>111</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I84" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J84" s="7">
-        <v>15000</v>
       </c>
       <c r="K84" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="6">
         <v>6</v>
       </c>
@@ -5869,26 +6118,29 @@
         <v>112</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I85" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J85" s="11">
+      <c r="K85" s="11">
         <v>5000</v>
       </c>
-      <c r="K85" s="11">
+      <c r="L85" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="6">
         <v>8</v>
       </c>
@@ -5899,26 +6151,29 @@
         <v>113</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I86" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J86" s="7">
-        <v>15000</v>
       </c>
       <c r="K86" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="6">
         <v>7</v>
       </c>
@@ -5929,24 +6184,27 @@
         <v>114</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I87" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7">
+      <c r="K87" s="7"/>
+      <c r="L87" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="6">
         <v>7</v>
       </c>
@@ -5957,26 +6215,29 @@
         <v>116</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="I88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J88" s="10">
+      <c r="K88" s="10">
         <v>10000</v>
       </c>
-      <c r="K88" s="10">
+      <c r="L88" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="6">
         <v>7</v>
       </c>
@@ -5987,26 +6248,29 @@
         <v>117</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I89" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J89" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="10">
+      <c r="K89" s="10">
         <v>10000</v>
       </c>
-      <c r="K89" s="10">
+      <c r="L89" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="6">
         <v>7</v>
       </c>
@@ -6017,24 +6281,27 @@
         <v>118</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I90" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J90" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7">
+      <c r="K90" s="7"/>
+      <c r="L90" s="7">
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6">
         <v>6</v>
       </c>
@@ -6045,26 +6312,29 @@
         <v>119</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I91" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="10">
+      <c r="K91" s="10">
         <v>10000</v>
       </c>
-      <c r="K91" s="10">
+      <c r="L91" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="6">
         <v>10</v>
       </c>
@@ -6075,26 +6345,29 @@
         <v>120</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="J92" s="7">
-        <v>4000</v>
       </c>
       <c r="K92" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6">
         <v>8</v>
       </c>
@@ -6105,26 +6378,29 @@
         <v>123</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="I93" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J93" s="7">
-        <v>4000</v>
       </c>
       <c r="K93" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="6">
         <v>8</v>
       </c>
@@ -6135,26 +6411,29 @@
         <v>125</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I94" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J94" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J94" s="11">
+      <c r="K94" s="11">
         <v>4000</v>
       </c>
-      <c r="K94" s="11">
+      <c r="L94" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="6">
         <v>10</v>
       </c>
@@ -6165,26 +6444,29 @@
         <v>126</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I95" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J95" s="10">
+      <c r="K95" s="10">
         <v>15000</v>
       </c>
-      <c r="K95" s="10">
+      <c r="L95" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="6">
         <v>10</v>
       </c>
@@ -6195,26 +6477,29 @@
         <v>128</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="I96" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J96" s="10">
+      <c r="K96" s="10">
         <v>10000</v>
       </c>
-      <c r="K96" s="10">
+      <c r="L96" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="6">
         <v>10</v>
       </c>
@@ -6225,26 +6510,29 @@
         <v>130</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I97" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J97" s="10">
+      <c r="K97" s="10">
         <v>10000</v>
       </c>
-      <c r="K97" s="10">
+      <c r="L97" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="6">
         <v>10</v>
       </c>
@@ -6255,26 +6543,29 @@
         <v>132</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="J98" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J98" s="10">
+      <c r="K98" s="10">
         <v>10000</v>
       </c>
-      <c r="K98" s="10">
+      <c r="L98" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6">
         <v>3</v>
       </c>
@@ -6282,29 +6573,32 @@
         <v>135</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I99" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J99" s="10">
+      <c r="K99" s="10">
         <v>5000</v>
       </c>
-      <c r="K99" s="10">
+      <c r="L99" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6">
         <v>3</v>
       </c>
@@ -6312,29 +6606,32 @@
         <v>135</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I100" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J100" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J100" s="10">
+      <c r="K100" s="10">
         <v>4000</v>
       </c>
-      <c r="K100" s="10">
+      <c r="L100" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B101" s="6">
         <v>3</v>
       </c>
@@ -6345,26 +6642,29 @@
         <v>138</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I101" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J101" s="10">
+      <c r="K101" s="10">
         <v>3000</v>
       </c>
-      <c r="K101" s="10">
+      <c r="L101" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B102" s="6">
         <v>4</v>
       </c>
@@ -6375,26 +6675,29 @@
         <v>140</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I102" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J102" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J102" s="10">
+      <c r="K102" s="10">
         <v>3000</v>
       </c>
-      <c r="K102" s="10">
+      <c r="L102" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="6">
         <v>4</v>
       </c>
@@ -6405,26 +6708,29 @@
         <v>142</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I103" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J103" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J103" s="10">
+      <c r="K103" s="10">
         <v>5000</v>
       </c>
-      <c r="K103" s="10">
+      <c r="L103" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="6">
         <v>4</v>
       </c>
@@ -6435,26 +6741,29 @@
         <v>144</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J104" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J104" s="10">
+      <c r="K104" s="10">
         <v>5000</v>
       </c>
-      <c r="K104" s="10">
+      <c r="L104" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="6">
         <v>4</v>
       </c>
@@ -6465,26 +6774,29 @@
         <v>145</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I105" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J105" s="10">
+      <c r="K105" s="10">
         <v>5000</v>
       </c>
-      <c r="K105" s="10">
+      <c r="L105" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="6">
         <v>4</v>
       </c>
@@ -6495,26 +6807,29 @@
         <v>146</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I106" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J106" s="10">
+      <c r="K106" s="10">
         <v>5000</v>
       </c>
-      <c r="K106" s="10">
+      <c r="L106" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="6">
         <v>5</v>
       </c>
@@ -6525,24 +6840,27 @@
         <v>147</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I107" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7">
+      <c r="K107" s="7"/>
+      <c r="L107" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="6">
         <v>5</v>
       </c>
@@ -6553,26 +6871,29 @@
         <v>148</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I108" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J108" s="10">
+      <c r="K108" s="10">
         <v>7000</v>
       </c>
-      <c r="K108" s="10">
+      <c r="L108" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="6">
         <v>5</v>
       </c>
@@ -6583,24 +6904,27 @@
         <v>149</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I109" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7">
+      <c r="K109" s="7"/>
+      <c r="L109" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="110" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="6">
         <v>5</v>
       </c>
@@ -6611,24 +6935,27 @@
         <v>150</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="I110" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7">
+      <c r="K110" s="7"/>
+      <c r="L110" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="6">
         <v>5</v>
       </c>
@@ -6639,24 +6966,27 @@
         <v>151</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I111" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7">
+      <c r="K111" s="7"/>
+      <c r="L111" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6">
         <v>5</v>
       </c>
@@ -6667,24 +6997,27 @@
         <v>152</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="I112" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7">
+      <c r="K112" s="7"/>
+      <c r="L112" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="113" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>153</v>
       </c>
@@ -6695,28 +7028,31 @@
         <v>155</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I113" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J113" s="10">
+      <c r="K113" s="10">
         <v>4000</v>
       </c>
-      <c r="K113" s="10">
+      <c r="L113" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="114" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>153</v>
       </c>
@@ -6727,28 +7063,31 @@
         <v>157</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I114" s="5" t="s">
+      <c r="H114" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J114" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J114" s="10">
+      <c r="K114" s="10">
         <v>3000</v>
       </c>
-      <c r="K114" s="10">
+      <c r="L114" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="115" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>153</v>
       </c>
@@ -6759,28 +7098,31 @@
         <v>159</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I115" s="5" t="s">
+      <c r="H115" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J115" s="10">
+      <c r="K115" s="10">
         <v>3000</v>
       </c>
-      <c r="K115" s="10">
+      <c r="L115" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="116" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>153</v>
       </c>
@@ -6791,28 +7133,31 @@
         <v>160</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I116" s="5" t="s">
+      <c r="H116" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J116" s="10">
+      <c r="K116" s="10">
         <v>3000</v>
       </c>
-      <c r="K116" s="10">
+      <c r="L116" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="117" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>153</v>
       </c>
@@ -6823,28 +7168,31 @@
         <v>161</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I117" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J117" s="10">
+      <c r="K117" s="10">
         <v>4000</v>
       </c>
-      <c r="K117" s="10">
+      <c r="L117" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="118" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>153</v>
       </c>
@@ -6855,28 +7203,31 @@
         <v>163</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I118" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J118" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J118" s="10">
+      <c r="K118" s="10">
         <v>4000</v>
       </c>
-      <c r="K118" s="10">
+      <c r="L118" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="119" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="6">
         <v>3</v>
       </c>
@@ -6887,26 +7238,29 @@
         <v>165</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I119" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J119" s="10">
+      <c r="K119" s="10">
         <v>3000</v>
       </c>
-      <c r="K119" s="10">
+      <c r="L119" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="6">
         <v>3</v>
       </c>
@@ -6917,26 +7271,29 @@
         <v>167</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I120" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J120" s="10">
+      <c r="K120" s="10">
         <v>3000</v>
       </c>
-      <c r="K120" s="10">
+      <c r="L120" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="6">
         <v>3</v>
       </c>
@@ -6947,26 +7304,29 @@
         <v>168</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I121" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H121" s="5"/>
+      <c r="I121" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J121" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J121" s="10">
+      <c r="K121" s="10">
         <v>3000</v>
       </c>
-      <c r="K121" s="10">
+      <c r="L121" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6">
         <v>3</v>
       </c>
@@ -6977,26 +7337,29 @@
         <v>169</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="I122" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J122" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J122" s="10">
+      <c r="K122" s="10">
         <v>3000</v>
       </c>
-      <c r="K122" s="10">
+      <c r="L122" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="6">
         <v>4</v>
       </c>
@@ -7007,26 +7370,29 @@
         <v>170</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I123" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J123" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J123" s="10">
+      <c r="K123" s="10">
         <v>4000</v>
       </c>
-      <c r="K123" s="10">
+      <c r="L123" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="6">
         <v>4</v>
       </c>
@@ -7037,26 +7403,29 @@
         <v>172</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I124" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J124" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J124" s="10">
+      <c r="K124" s="10">
         <v>4000</v>
       </c>
-      <c r="K124" s="10">
+      <c r="L124" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="6">
         <v>4</v>
       </c>
@@ -7067,26 +7436,29 @@
         <v>173</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I125" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J125" s="10">
+      <c r="K125" s="10">
         <v>3000</v>
       </c>
-      <c r="K125" s="10">
+      <c r="L125" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6">
         <v>4</v>
       </c>
@@ -7097,26 +7469,29 @@
         <v>174</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I126" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J126" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J126" s="10">
+      <c r="K126" s="10">
         <v>3000</v>
       </c>
-      <c r="K126" s="10">
+      <c r="L126" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="6">
         <v>4</v>
       </c>
@@ -7127,26 +7502,29 @@
         <v>175</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I127" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J127" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J127" s="10">
+      <c r="K127" s="10">
         <v>3000</v>
       </c>
-      <c r="K127" s="10">
+      <c r="L127" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="6">
         <v>4</v>
       </c>
@@ -7157,26 +7535,29 @@
         <v>176</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I128" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J128" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J128" s="10">
+      <c r="K128" s="10">
         <v>3000</v>
       </c>
-      <c r="K128" s="10">
+      <c r="L128" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="6">
         <v>4</v>
       </c>
@@ -7187,32 +7568,38 @@
         <v>178</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I129" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J129" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J129" s="10">
+      <c r="K129" s="10">
         <v>4000</v>
       </c>
-      <c r="K129" s="10">
+      <c r="L129" s="10">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3665F702-1463-4BD3-9D5A-F10F65E3FC80}">
       <formula1>"Odd, Even, Not Specified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{B8876F4F-87B4-443E-B33B-352B9D7EC604}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 G130:G1048576" xr:uid="{B8876F4F-87B4-443E-B33B-352B9D7EC604}">
       <formula1>"Ascending, Descending, Not Specified"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G129" xr:uid="{97325087-4EFA-4704-9C31-7ABC9ED4F547}">
+      <formula1>"Not Applicable, 0, 1, 2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.17" bottom="0.17" header="0.17" footer="0.17"/>
